--- a/.playwright-mcp/CUI-Maintenance-Open-20260120.xlsx
+++ b/.playwright-mcp/CUI-Maintenance-Open-20260120.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 06:27:19Z</v>
+        <v>Generated: 2026-01-20 10:27:10Z</v>
       </c>
     </row>
     <row r="5">

--- a/.playwright-mcp/CUI-Maintenance-Open-20260120.xlsx
+++ b/.playwright-mcp/CUI-Maintenance-Open-20260120.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 10:27:10Z</v>
+        <v>Generated: 2026-01-20 10:53:56Z</v>
       </c>
     </row>
     <row r="5">

--- a/.playwright-mcp/CUI-Maintenance-Open-20260120.xlsx
+++ b/.playwright-mcp/CUI-Maintenance-Open-20260120.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 10:53:56Z</v>
+        <v>Generated: 2026-01-20 15:15:00Z</v>
       </c>
     </row>
     <row r="5">
@@ -438,7 +438,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Total Events: 4</v>
+        <v>Total Events: 3</v>
       </c>
     </row>
     <row r="8">
@@ -557,82 +557,44 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>MX-2024-002</v>
+        <v>MX-2024-003</v>
       </c>
       <c r="B11" t="str">
-        <v>CRIIS-006</v>
+        <v>CRIIS-003</v>
       </c>
       <c r="C11" t="str">
-        <v>Radar Unit 01</v>
+        <v>Sensor Unit B</v>
       </c>
       <c r="D11" t="str">
-        <v>Awaiting replacement parts - power supply module</v>
+        <v>Scheduled PMI - 90-day calibration</v>
       </c>
       <c r="E11" t="str">
-        <v>Standard</v>
+        <v>PMI</v>
       </c>
       <c r="F11" t="str">
-        <v>Urgent</v>
+        <v>Routine</v>
       </c>
       <c r="G11" t="str">
         <v>OPEN</v>
       </c>
       <c r="H11" t="str">
-        <v>Field Site Bravo</v>
+        <v>Depot Alpha</v>
       </c>
       <c r="I11" t="str">
-        <v>2026-01-10 00:00:00Z</v>
+        <v>2026-01-18 00:00:00Z</v>
       </c>
       <c r="J11" t="str">
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>11 days</v>
+        <v>3 days</v>
       </c>
       <c r="L11" t="str">
         <v>No</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>MX-2024-003</v>
-      </c>
-      <c r="B12" t="str">
-        <v>CRIIS-003</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Sensor Unit B</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Scheduled PMI - 90-day calibration</v>
-      </c>
-      <c r="E12" t="str">
-        <v>PMI</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Routine</v>
-      </c>
-      <c r="G12" t="str">
-        <v>OPEN</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Depot Alpha</v>
-      </c>
-      <c r="I12" t="str">
-        <v>2026-01-18 00:00:00Z</v>
-      </c>
-      <c r="J12" t="str">
-        <v/>
-      </c>
-      <c r="K12" t="str">
-        <v>3 days</v>
-      </c>
-      <c r="L12" t="str">
-        <v>No</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
+    <row r="13">
+      <c r="A13" t="str">
         <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
@@ -643,10 +605,10 @@
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A13:L13"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L13"/>
   </ignoredErrors>
 </worksheet>
 </file>